--- a/data/gebieden/overzicht.xlsx
+++ b/data/gebieden/overzicht.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="221">
   <si>
     <t>gebied</t>
   </si>
@@ -682,27 +682,6 @@
   </si>
   <si>
     <t>9.41</t>
-  </si>
-  <si>
-    <t>letter</t>
-  </si>
-  <si>
-    <t>frequency</t>
-  </si>
-  <si>
-    <t>Oud-West/ De Baarsjes</t>
-  </si>
-  <si>
-    <t>Pijp</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>"red"</t>
-  </si>
-  <si>
-    <t>"blue"</t>
   </si>
 </sst>
 </file>
@@ -758,8 +737,234 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -785,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="247">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -796,6 +1001,119 @@
     <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -806,6 +1124,119 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1138,7 +1569,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2127,398 +2558,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="H30" t="s">
-        <v>221</v>
-      </c>
-      <c r="I30" t="s">
-        <v>222</v>
-      </c>
-      <c r="J30" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31">
-        <v>1656</v>
-      </c>
-      <c r="J31" t="s">
-        <v>226</v>
-      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="B32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1">
-        <v>131</v>
-      </c>
-      <c r="H32" t="s">
-        <v>187</v>
-      </c>
-      <c r="I32">
-        <v>1718</v>
-      </c>
-      <c r="J32" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>83</v>
-      </c>
-      <c r="H33" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33">
-        <v>1848</v>
-      </c>
-      <c r="J33" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="1">
-        <v>105</v>
-      </c>
-      <c r="H34" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34">
-        <v>2119</v>
-      </c>
-      <c r="J34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35">
-        <v>2127</v>
-      </c>
-      <c r="J35" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36">
-        <v>2179</v>
-      </c>
-      <c r="J36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37">
-        <v>2220</v>
-      </c>
-      <c r="J37" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="1">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38">
-        <v>2246</v>
-      </c>
-      <c r="J38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H39" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39">
-        <v>2391</v>
-      </c>
-      <c r="J39" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" t="s">
-        <v>168</v>
-      </c>
-      <c r="I40">
-        <v>2562</v>
-      </c>
-      <c r="J40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="1">
-        <v>60</v>
-      </c>
-      <c r="H41" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41">
-        <v>2755</v>
-      </c>
-      <c r="J41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I42">
-        <v>2852</v>
-      </c>
-      <c r="J42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H43" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43">
-        <v>2881</v>
-      </c>
-      <c r="J43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I44">
-        <v>3098</v>
-      </c>
-      <c r="J44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H45" t="s">
-        <v>123</v>
-      </c>
-      <c r="I45">
-        <v>3272</v>
-      </c>
-      <c r="J45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="1">
-        <v>81.5</v>
-      </c>
-      <c r="H46" t="s">
-        <v>141</v>
-      </c>
-      <c r="I46">
-        <v>3293</v>
-      </c>
-      <c r="J46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="1">
-        <v>90</v>
-      </c>
-      <c r="H47" t="s">
-        <v>223</v>
-      </c>
-      <c r="I47">
-        <v>3570</v>
-      </c>
-      <c r="J47" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="B48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="1">
-        <v>104</v>
-      </c>
-      <c r="H48" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48">
-        <v>3617</v>
-      </c>
-      <c r="J48" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H49" t="s">
-        <v>224</v>
-      </c>
-      <c r="I49">
-        <v>3813</v>
-      </c>
-      <c r="J49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
-      <c r="B50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" t="s">
-        <v>24</v>
-      </c>
-      <c r="I50">
-        <v>3897</v>
-      </c>
-      <c r="J50" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" t="s">
-        <v>195</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H51" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51">
-        <v>4027</v>
-      </c>
-      <c r="J51" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52">
-        <v>4194</v>
-      </c>
-      <c r="J52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
